--- a/materiais/modelos_excel/PADRAO.xlsx
+++ b/materiais/modelos_excel/PADRAO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="EstaPasta_de_trabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\dvmsys\materiais\modelos_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Developer\XAMPP\htdocs\erp_sistema\materiais\modelos_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -44,9 +44,6 @@
     <t/>
   </si>
   <si>
-    <t>Nº DEVEMADA</t>
-  </si>
-  <si>
     <t>Nº CLIENTE</t>
   </si>
   <si>
@@ -54,6 +51,9 @@
   </si>
   <si>
     <t>Peso Total</t>
+  </si>
+  <si>
+    <t>Nº</t>
   </si>
 </sst>
 </file>
@@ -320,6 +320,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -350,6 +389,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -358,6 +401,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -377,53 +424,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -442,57 +442,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1428751</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>153198</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Imagem 4" descr="logo_dvm_doc_tecnicos_color"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="152401" y="95250"/>
-          <a:ext cx="1657350" cy="381798"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -846,7 +795,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -854,7 +803,7 @@
     <col min="1" max="1" width="5.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="54.140625" style="13" customWidth="1"/>
     <col min="3" max="4" width="18.85546875" style="19" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="49" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="31" customWidth="1"/>
     <col min="6" max="6" width="0.42578125" style="11" customWidth="1"/>
     <col min="7" max="7" width="7.7109375" style="1" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="5.28515625" style="1" hidden="1" customWidth="1"/>
@@ -867,78 +816,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="40"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="24.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="40"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
       <c r="C3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="20"/>
+      <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="41"/>
+      <c r="F3" s="23"/>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="34"/>
-      <c r="B4" s="35"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="15"/>
-      <c r="D4" s="39"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="42"/>
+      <c r="F4" s="24"/>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="34"/>
-      <c r="B5" s="35"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="16" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="41"/>
+      <c r="F5" s="23"/>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="22"/>
-      <c r="B6" s="23"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="43"/>
+      <c r="F6" s="25"/>
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="44"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="26"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="45"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="27"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -953,26 +902,26 @@
       <c r="D9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="47" t="s">
-        <v>9</v>
+      <c r="E9" s="29" t="s">
+        <v>8</v>
       </c>
-      <c r="F9" s="45"/>
+      <c r="F9" s="27"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="12"/>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="46"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="12"/>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="46"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="28"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -991,6 +940,5 @@
   <headerFooter>
     <oddHeader xml:space="preserve">&amp;R&amp;P/&amp;N                  </oddHeader>
   </headerFooter>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>